--- a/金源2019-2021/2021年1-5月金源消耗表（财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-5月金源消耗表（财务运营共享版）.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1F67B-BF0F-4284-B99D-579926804A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -15,17 +14,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AK$331</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$AA$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{811C62B8-E054-4F1F-BE99-18A70F4F9024}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{571444C6-2DD3-4292-BDC5-FBF6C6A0AB0E}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F02ABD48-3D79-4168-8272-6406BF322D84}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{56BCB532-C867-406A-860A-75A78D9AC817}">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{0147A80D-B137-42D5-BD97-86F0E0B5C06B}">
+    <comment ref="N8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{9DC01529-6A71-4115-B818-3F75C88C8226}">
+    <comment ref="N10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{8B037DFE-47D6-474E-855D-C11D4554CC51}">
+    <comment ref="N14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{C5DF2ED4-FDEF-4D65-86C6-79C52772ACE7}">
+    <comment ref="N15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{32263CF2-C15F-4132-9F61-0BB772E813A4}">
+    <comment ref="N16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{20E32751-5E43-4688-9321-D3AFD6954268}">
+    <comment ref="N18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1056,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
@@ -1553,14 +1552,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
-    <cellStyle name="百分比 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="百分比 2 2" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{BBA1D2A3-545B-4AE8-AA32-33613145C3BD}"/>
-    <cellStyle name="常规 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 4" xfId="5"/>
     <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="千位分隔 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="千位分隔 2 2 2" xfId="6"/>
+    <cellStyle name="千位分隔 4" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1576,7 +1575,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1651,23 +1650,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1703,23 +1685,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1895,51 +1860,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E320" sqref="E320"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W337" sqref="W337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.90625" style="1"/>
-    <col min="5" max="5" width="25.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="33.08984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="25.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="33.125" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="30" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="30" customWidth="1"/>
     <col min="12" max="12" width="9" style="30" customWidth="1"/>
-    <col min="13" max="13" width="28.90625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.90625" style="30"/>
-    <col min="17" max="17" width="9.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="30"/>
+    <col min="13" max="13" width="28.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.875" style="30"/>
+    <col min="17" max="17" width="9.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="30"/>
     <col min="20" max="20" width="17" style="9" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.375" style="9" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.08984375" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" style="9" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.36328125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="9.90625" style="25" customWidth="1"/>
+    <col min="28" max="28" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.375" style="12" customWidth="1"/>
+    <col min="31" max="31" width="9.875" style="25" customWidth="1"/>
     <col min="32" max="32" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.08984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.125" style="40" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="9" customWidth="1"/>
-    <col min="35" max="35" width="11.08984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="17.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.90625" style="9"/>
+    <col min="35" max="35" width="11.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="17.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="63" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="63" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2020,7 @@
         <v>10320543.189862525</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>183</v>
       </c>
@@ -2150,7 +2116,7 @@
         <v>1485393.7890624993</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>183</v>
       </c>
@@ -2246,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>183</v>
       </c>
@@ -2344,7 +2310,7 @@
         <v>527252.29230769211</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>183</v>
       </c>
@@ -2438,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>183</v>
       </c>
@@ -2532,7 +2498,7 @@
         <v>437947.25362318842</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>183</v>
       </c>
@@ -2624,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>183</v>
       </c>
@@ -2718,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>183</v>
       </c>
@@ -2812,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>183</v>
       </c>
@@ -2906,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>183</v>
       </c>
@@ -3000,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>183</v>
       </c>
@@ -3094,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>183</v>
       </c>
@@ -3188,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>183</v>
       </c>
@@ -3282,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>183</v>
       </c>
@@ -3376,7 +3342,7 @@
         <v>45505.852112676053</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>183</v>
       </c>
@@ -3470,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>183</v>
       </c>
@@ -3564,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>183</v>
       </c>
@@ -3658,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
         <v>183</v>
       </c>
@@ -3752,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>183</v>
       </c>
@@ -3846,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>183</v>
       </c>
@@ -3940,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>183</v>
       </c>
@@ -4034,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>183</v>
       </c>
@@ -4128,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>183</v>
       </c>
@@ -4222,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>183</v>
       </c>
@@ -4316,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>183</v>
       </c>
@@ -4410,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
         <v>183</v>
       </c>
@@ -4504,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>183</v>
       </c>
@@ -4598,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>183</v>
       </c>
@@ -4692,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>183</v>
       </c>
@@ -4786,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>183</v>
       </c>
@@ -4880,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>183</v>
       </c>
@@ -4974,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>183</v>
       </c>
@@ -5068,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>183</v>
       </c>
@@ -5162,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>183</v>
       </c>
@@ -5256,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>183</v>
       </c>
@@ -5350,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>183</v>
       </c>
@@ -5444,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>183</v>
       </c>
@@ -5538,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>183</v>
       </c>
@@ -5632,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>183</v>
       </c>
@@ -5726,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>183</v>
       </c>
@@ -5820,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>183</v>
       </c>
@@ -5914,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
         <v>183</v>
       </c>
@@ -6008,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
         <v>183</v>
       </c>
@@ -6102,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>183</v>
       </c>
@@ -6196,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>183</v>
       </c>
@@ -6290,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>183</v>
       </c>
@@ -6384,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
         <v>183</v>
       </c>
@@ -6478,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>183</v>
       </c>
@@ -6572,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>183</v>
       </c>
@@ -6666,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>183</v>
       </c>
@@ -6760,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14" t="s">
         <v>183</v>
       </c>
@@ -6854,7 +6820,7 @@
         <v>32.795774647887313</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>183</v>
       </c>
@@ -6948,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
         <v>183</v>
       </c>
@@ -7042,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
         <v>183</v>
       </c>
@@ -7136,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
         <v>183</v>
       </c>
@@ -7230,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
         <v>183</v>
       </c>
@@ -7324,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14" t="s">
         <v>183</v>
       </c>
@@ -7418,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14" t="s">
         <v>183</v>
       </c>
@@ -7512,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
         <v>183</v>
       </c>
@@ -7606,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14" t="s">
         <v>183</v>
       </c>
@@ -7700,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14" t="s">
         <v>183</v>
       </c>
@@ -7793,7 +7759,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14" t="s">
         <v>183</v>
       </c>
@@ -7887,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14" t="s">
         <v>183</v>
       </c>
@@ -7978,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14" t="s">
         <v>183</v>
       </c>
@@ -8069,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14" t="s">
         <v>183</v>
       </c>
@@ -8155,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14" t="s">
         <v>186</v>
       </c>
@@ -8260,7 +8226,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A68" s="14" t="s">
         <v>186</v>
       </c>
@@ -8361,7 +8327,7 @@
         <v>836764.81249999977</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
         <v>186</v>
       </c>
@@ -8462,7 +8428,7 @@
         <v>215279.15942028977</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A70" s="14" t="s">
         <v>186</v>
       </c>
@@ -8563,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
         <v>186</v>
       </c>
@@ -8664,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14" t="s">
         <v>183</v>
       </c>
@@ -8756,7 +8722,7 @@
         <v>50136.600000000013</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
         <v>186</v>
       </c>
@@ -8857,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14" t="s">
         <v>186</v>
       </c>
@@ -8958,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14" t="s">
         <v>186</v>
       </c>
@@ -9059,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14" t="s">
         <v>186</v>
       </c>
@@ -9160,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14" t="s">
         <v>186</v>
       </c>
@@ -9261,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14" t="s">
         <v>186</v>
       </c>
@@ -9362,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14" t="s">
         <v>186</v>
       </c>
@@ -9463,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14" t="s">
         <v>186</v>
       </c>
@@ -9564,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14" t="s">
         <v>186</v>
       </c>
@@ -9665,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14" t="s">
         <v>186</v>
       </c>
@@ -9766,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14" t="s">
         <v>186</v>
       </c>
@@ -9867,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14" t="s">
         <v>186</v>
       </c>
@@ -9968,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14" t="s">
         <v>186</v>
       </c>
@@ -10069,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14" t="s">
         <v>186</v>
       </c>
@@ -10170,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14" t="s">
         <v>186</v>
       </c>
@@ -10271,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14" t="s">
         <v>186</v>
       </c>
@@ -10372,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14" t="s">
         <v>186</v>
       </c>
@@ -10473,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14" t="s">
         <v>186</v>
       </c>
@@ -10574,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14" t="s">
         <v>186</v>
       </c>
@@ -10675,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14" t="s">
         <v>186</v>
       </c>
@@ -10776,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14" t="s">
         <v>186</v>
       </c>
@@ -10877,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14" t="s">
         <v>186</v>
       </c>
@@ -10978,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14" t="s">
         <v>186</v>
       </c>
@@ -11079,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14" t="s">
         <v>186</v>
       </c>
@@ -11180,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14" t="s">
         <v>186</v>
       </c>
@@ -11281,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14" t="s">
         <v>186</v>
       </c>
@@ -11382,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14" t="s">
         <v>186</v>
       </c>
@@ -11483,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14" t="s">
         <v>186</v>
       </c>
@@ -11584,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="14" t="s">
         <v>186</v>
       </c>
@@ -11685,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="14" t="s">
         <v>186</v>
       </c>
@@ -11786,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14" t="s">
         <v>186</v>
       </c>
@@ -11887,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="14" t="s">
         <v>186</v>
       </c>
@@ -11988,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="14" t="s">
         <v>186</v>
       </c>
@@ -12089,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="14" t="s">
         <v>186</v>
       </c>
@@ -12190,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="14" t="s">
         <v>186</v>
       </c>
@@ -12291,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="14" t="s">
         <v>186</v>
       </c>
@@ -12392,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="14" t="s">
         <v>186</v>
       </c>
@@ -12493,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="14" t="s">
         <v>186</v>
       </c>
@@ -12594,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="14" t="s">
         <v>186</v>
       </c>
@@ -12695,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="14" t="s">
         <v>186</v>
       </c>
@@ -12796,7 +12762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="14" t="s">
         <v>186</v>
       </c>
@@ -12897,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="14" t="s">
         <v>186</v>
       </c>
@@ -12998,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="14" t="s">
         <v>186</v>
       </c>
@@ -13099,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="14" t="s">
         <v>186</v>
       </c>
@@ -13200,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="14" t="s">
         <v>186</v>
       </c>
@@ -13301,7 +13267,7 @@
         <v>8.9507042253521156</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="14" t="s">
         <v>186</v>
       </c>
@@ -13402,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="14" t="s">
         <v>186</v>
       </c>
@@ -13503,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="14" t="s">
         <v>186</v>
       </c>
@@ -13604,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="14" t="s">
         <v>186</v>
       </c>
@@ -13705,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="14" t="s">
         <v>186</v>
       </c>
@@ -13806,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="14" t="s">
         <v>186</v>
       </c>
@@ -13907,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="14" t="s">
         <v>186</v>
       </c>
@@ -14008,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="14" t="s">
         <v>186</v>
       </c>
@@ -14109,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="14" t="s">
         <v>186</v>
       </c>
@@ -14210,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="14" t="s">
         <v>186</v>
       </c>
@@ -14311,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="14" t="s">
         <v>186</v>
       </c>
@@ -14412,7 +14378,7 @@
         <v>40650.985915492973</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="14" t="s">
         <v>186</v>
       </c>
@@ -14507,7 +14473,7 @@
       </c>
       <c r="AH129" s="34"/>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="14" t="s">
         <v>186</v>
       </c>
@@ -14605,7 +14571,7 @@
       </c>
       <c r="AH130" s="34"/>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="14" t="s">
         <v>186</v>
       </c>
@@ -14704,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="14" t="s">
         <v>186</v>
       </c>
@@ -14809,7 +14775,7 @@
         <v>22.689999999999941</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="14" t="s">
         <v>200</v>
       </c>
@@ -14910,7 +14876,7 @@
         <v>1964.1</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="14" t="s">
         <v>200</v>
       </c>
@@ -15010,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="14" t="s">
         <v>200</v>
       </c>
@@ -15118,7 +15084,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A136" s="14" t="s">
         <v>200</v>
       </c>
@@ -15217,7 +15183,7 @@
         <v>451877.28124999983</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A137" s="14" t="s">
         <v>200</v>
       </c>
@@ -15316,7 +15282,7 @@
         <v>219131.10144927545</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A138" s="14" t="s">
         <v>200</v>
       </c>
@@ -15415,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
         <v>200</v>
       </c>
@@ -15514,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="14" t="s">
         <v>200</v>
       </c>
@@ -15613,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="14" t="s">
         <v>200</v>
       </c>
@@ -15712,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="14" t="s">
         <v>200</v>
       </c>
@@ -15811,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="14" t="s">
         <v>200</v>
       </c>
@@ -15910,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="14" t="s">
         <v>200</v>
       </c>
@@ -16009,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="14" t="s">
         <v>200</v>
       </c>
@@ -16108,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="14" t="s">
         <v>200</v>
       </c>
@@ -16207,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="14" t="s">
         <v>200</v>
       </c>
@@ -16306,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="14" t="s">
         <v>200</v>
       </c>
@@ -16405,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="14" t="s">
         <v>200</v>
       </c>
@@ -16504,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="14" t="s">
         <v>200</v>
       </c>
@@ -16603,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="14" t="s">
         <v>200</v>
       </c>
@@ -16702,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="14" t="s">
         <v>200</v>
       </c>
@@ -16801,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="14" t="s">
         <v>200</v>
       </c>
@@ -16900,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="14" t="s">
         <v>200</v>
       </c>
@@ -16999,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="14" t="s">
         <v>200</v>
       </c>
@@ -17098,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="14" t="s">
         <v>200</v>
       </c>
@@ -17197,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="14" t="s">
         <v>200</v>
       </c>
@@ -17296,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="14" t="s">
         <v>200</v>
       </c>
@@ -17395,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="14" t="s">
         <v>200</v>
       </c>
@@ -17494,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="14" t="s">
         <v>200</v>
       </c>
@@ -17593,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="14" t="s">
         <v>200</v>
       </c>
@@ -17692,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="14" t="s">
         <v>200</v>
       </c>
@@ -17791,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="14" t="s">
         <v>200</v>
       </c>
@@ -17890,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="14" t="s">
         <v>200</v>
       </c>
@@ -17989,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="14" t="s">
         <v>200</v>
       </c>
@@ -18088,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="14" t="s">
         <v>200</v>
       </c>
@@ -18187,7 +18153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="14" t="s">
         <v>200</v>
       </c>
@@ -18286,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="14" t="s">
         <v>200</v>
       </c>
@@ -18385,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="14" t="s">
         <v>200</v>
       </c>
@@ -18484,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="14" t="s">
         <v>200</v>
       </c>
@@ -18583,7 +18549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="14" t="s">
         <v>200</v>
       </c>
@@ -18682,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="14" t="s">
         <v>200</v>
       </c>
@@ -18781,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="14" t="s">
         <v>200</v>
       </c>
@@ -18880,7 +18846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="14" t="s">
         <v>200</v>
       </c>
@@ -18979,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="14" t="s">
         <v>200</v>
       </c>
@@ -19078,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="14" t="s">
         <v>200</v>
       </c>
@@ -19177,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="14" t="s">
         <v>200</v>
       </c>
@@ -19276,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="14" t="s">
         <v>200</v>
       </c>
@@ -19375,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="14" t="s">
         <v>200</v>
       </c>
@@ -19474,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="14" t="s">
         <v>200</v>
       </c>
@@ -19573,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="14" t="s">
         <v>200</v>
       </c>
@@ -19672,7 +19638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="14" t="s">
         <v>200</v>
       </c>
@@ -19771,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="14" t="s">
         <v>200</v>
       </c>
@@ -19870,7 +19836,7 @@
         <v>16114.171171171167</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="14" t="s">
         <v>200</v>
       </c>
@@ -19969,7 +19935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="14" t="s">
         <v>200</v>
       </c>
@@ -20068,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="14" t="s">
         <v>200</v>
       </c>
@@ -20167,7 +20133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="14" t="s">
         <v>200</v>
       </c>
@@ -20266,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="14" t="s">
         <v>200</v>
       </c>
@@ -20365,7 +20331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="14" t="s">
         <v>200</v>
       </c>
@@ -20464,7 +20430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="14" t="s">
         <v>200</v>
       </c>
@@ -20563,7 +20529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="14" t="s">
         <v>200</v>
       </c>
@@ -20662,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="14" t="s">
         <v>200</v>
       </c>
@@ -20761,7 +20727,7 @@
         <v>5691.8099999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="14" t="s">
         <v>200</v>
       </c>
@@ -20860,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="14" t="s">
         <v>200</v>
       </c>
@@ -20959,7 +20925,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="14" t="s">
         <v>200</v>
       </c>
@@ -21058,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="14" t="s">
         <v>200</v>
       </c>
@@ -21153,7 +21119,7 @@
       </c>
       <c r="AH196" s="34"/>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="14" t="s">
         <v>200</v>
       </c>
@@ -21246,7 +21212,7 @@
       </c>
       <c r="AH197" s="34"/>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="14" t="s">
         <v>200</v>
       </c>
@@ -21339,7 +21305,7 @@
       </c>
       <c r="AH198" s="34"/>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="14" t="s">
         <v>231</v>
       </c>
@@ -21445,7 +21411,7 @@
         <v>654001.57999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="14" t="s">
         <v>231</v>
       </c>
@@ -21551,7 +21517,7 @@
       </c>
       <c r="AI200" s="65"/>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="14" t="s">
         <v>231</v>
       </c>
@@ -21650,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="14" t="s">
         <v>231</v>
       </c>
@@ -21756,7 +21722,7 @@
         <v>397864.9</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A203" s="14" t="s">
         <v>231</v>
       </c>
@@ -21855,7 +21821,7 @@
         <v>23437.5</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A204" s="14" t="s">
         <v>231</v>
       </c>
@@ -21954,7 +21920,7 @@
         <v>65589.739130434813</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A205" s="14" t="s">
         <v>231</v>
       </c>
@@ -22053,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A206" s="14" t="s">
         <v>231</v>
       </c>
@@ -22152,7 +22118,7 @@
         <v>152428.45652173911</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="14" t="s">
         <v>231</v>
       </c>
@@ -22251,7 +22217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="14" t="s">
         <v>231</v>
       </c>
@@ -22350,7 +22316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="14" t="s">
         <v>231</v>
       </c>
@@ -22449,7 +22415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="14" t="s">
         <v>231</v>
       </c>
@@ -22548,7 +22514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="14" t="s">
         <v>231</v>
       </c>
@@ -22647,7 +22613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="14" t="s">
         <v>231</v>
       </c>
@@ -22746,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="14" t="s">
         <v>231</v>
       </c>
@@ -22845,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="14" t="s">
         <v>231</v>
       </c>
@@ -22944,7 +22910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="14" t="s">
         <v>231</v>
       </c>
@@ -23043,7 +23009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="14" t="s">
         <v>231</v>
       </c>
@@ -23142,7 +23108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="14" t="s">
         <v>231</v>
       </c>
@@ -23241,7 +23207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="14" t="s">
         <v>231</v>
       </c>
@@ -23340,7 +23306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="14" t="s">
         <v>231</v>
       </c>
@@ -23439,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="14" t="s">
         <v>231</v>
       </c>
@@ -23538,7 +23504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="14" t="s">
         <v>231</v>
       </c>
@@ -23637,7 +23603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="14" t="s">
         <v>231</v>
       </c>
@@ -23736,7 +23702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="14" t="s">
         <v>231</v>
       </c>
@@ -23835,7 +23801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="14" t="s">
         <v>231</v>
       </c>
@@ -23934,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="14" t="s">
         <v>231</v>
       </c>
@@ -24033,7 +23999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="14" t="s">
         <v>231</v>
       </c>
@@ -24132,7 +24098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="14" t="s">
         <v>231</v>
       </c>
@@ -24231,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="14" t="s">
         <v>231</v>
       </c>
@@ -24330,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="14" t="s">
         <v>231</v>
       </c>
@@ -24429,7 +24395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="14" t="s">
         <v>231</v>
       </c>
@@ -24528,7 +24494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="14" t="s">
         <v>231</v>
       </c>
@@ -24627,7 +24593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="14" t="s">
         <v>231</v>
       </c>
@@ -24726,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="14" t="s">
         <v>231</v>
       </c>
@@ -24825,7 +24791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="14" t="s">
         <v>231</v>
       </c>
@@ -24924,7 +24890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="14" t="s">
         <v>231</v>
       </c>
@@ -25023,7 +24989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="14" t="s">
         <v>231</v>
       </c>
@@ -25122,7 +25088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="14" t="s">
         <v>231</v>
       </c>
@@ -25221,7 +25187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="14" t="s">
         <v>231</v>
       </c>
@@ -25320,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="14" t="s">
         <v>231</v>
       </c>
@@ -25419,7 +25385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="14" t="s">
         <v>231</v>
       </c>
@@ -25518,7 +25484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="14" t="s">
         <v>231</v>
       </c>
@@ -25617,7 +25583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="14" t="s">
         <v>231</v>
       </c>
@@ -25716,7 +25682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="14" t="s">
         <v>231</v>
       </c>
@@ -25815,7 +25781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="14" t="s">
         <v>231</v>
       </c>
@@ -25914,7 +25880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="14" t="s">
         <v>231</v>
       </c>
@@ -26013,7 +25979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="14" t="s">
         <v>231</v>
       </c>
@@ -26112,7 +26078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="14" t="s">
         <v>231</v>
       </c>
@@ -26211,7 +26177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="14" t="s">
         <v>231</v>
       </c>
@@ -26310,7 +26276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="14" t="s">
         <v>231</v>
       </c>
@@ -26409,7 +26375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="14" t="s">
         <v>231</v>
       </c>
@@ -26508,7 +26474,7 @@
         <v>13156.567567567565</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="14" t="s">
         <v>231</v>
       </c>
@@ -26607,7 +26573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="14" t="s">
         <v>231</v>
       </c>
@@ -26706,7 +26672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="14" t="s">
         <v>231</v>
       </c>
@@ -26805,7 +26771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="14" t="s">
         <v>231</v>
       </c>
@@ -26904,7 +26870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="14" t="s">
         <v>231</v>
       </c>
@@ -27003,7 +26969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="14" t="s">
         <v>231</v>
       </c>
@@ -27102,7 +27068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="14" t="s">
         <v>231</v>
       </c>
@@ -27201,7 +27167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="14" t="s">
         <v>231</v>
       </c>
@@ -27300,7 +27266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="14" t="s">
         <v>231</v>
       </c>
@@ -27399,7 +27365,7 @@
         <v>281.06</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="14" t="s">
         <v>231</v>
       </c>
@@ -27498,7 +27464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="14" t="s">
         <v>231</v>
       </c>
@@ -27597,7 +27563,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="14" t="s">
         <v>231</v>
       </c>
@@ -27696,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="14" t="s">
         <v>231</v>
       </c>
@@ -27796,7 +27762,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
         <v>231</v>
       </c>
@@ -27892,7 +27858,7 @@
         <v>43612.43</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="14" t="s">
         <v>231</v>
       </c>
@@ -27989,7 +27955,7 @@
         <v>95400</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="14" t="s">
         <v>236</v>
       </c>
@@ -28092,7 +28058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="14" t="s">
         <v>236</v>
       </c>
@@ -28197,7 +28163,7 @@
       </c>
       <c r="AI267" s="83"/>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="14" t="s">
         <v>236</v>
       </c>
@@ -28298,7 +28264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="14" t="s">
         <v>236</v>
       </c>
@@ -28402,7 +28368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A270" s="14" t="s">
         <v>236</v>
       </c>
@@ -28503,7 +28469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A271" s="14" t="s">
         <v>236</v>
       </c>
@@ -28604,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A272" s="14" t="s">
         <v>236</v>
       </c>
@@ -28705,7 +28671,7 @@
         <v>99683.652173913055</v>
       </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="14" t="s">
         <v>236</v>
       </c>
@@ -28806,7 +28772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="14" t="s">
         <v>236</v>
       </c>
@@ -28907,7 +28873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="14" t="s">
         <v>236</v>
       </c>
@@ -29008,7 +28974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="14" t="s">
         <v>236</v>
       </c>
@@ -29109,7 +29075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="14" t="s">
         <v>236</v>
       </c>
@@ -29210,7 +29176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="14" t="s">
         <v>236</v>
       </c>
@@ -29311,7 +29277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="14" t="s">
         <v>236</v>
       </c>
@@ -29412,7 +29378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="14" t="s">
         <v>236</v>
       </c>
@@ -29513,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="14" t="s">
         <v>236</v>
       </c>
@@ -29614,7 +29580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="14" t="s">
         <v>236</v>
       </c>
@@ -29715,7 +29681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="14" t="s">
         <v>236</v>
       </c>
@@ -29816,7 +29782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="14" t="s">
         <v>236</v>
       </c>
@@ -29917,7 +29883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="14" t="s">
         <v>236</v>
       </c>
@@ -30018,7 +29984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="14" t="s">
         <v>236</v>
       </c>
@@ -30119,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="14" t="s">
         <v>236</v>
       </c>
@@ -30220,7 +30186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="14" t="s">
         <v>236</v>
       </c>
@@ -30321,7 +30287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="14" t="s">
         <v>236</v>
       </c>
@@ -30422,7 +30388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="14" t="s">
         <v>236</v>
       </c>
@@ -30523,7 +30489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="14" t="s">
         <v>236</v>
       </c>
@@ -30624,7 +30590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="14" t="s">
         <v>236</v>
       </c>
@@ -30725,7 +30691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="14" t="s">
         <v>236</v>
       </c>
@@ -30826,7 +30792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="14" t="s">
         <v>236</v>
       </c>
@@ -30927,7 +30893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="14" t="s">
         <v>236</v>
       </c>
@@ -31028,7 +30994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="14" t="s">
         <v>236</v>
       </c>
@@ -31129,7 +31095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="14" t="s">
         <v>236</v>
       </c>
@@ -31230,7 +31196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="14" t="s">
         <v>236</v>
       </c>
@@ -31331,7 +31297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="14" t="s">
         <v>236</v>
       </c>
@@ -31432,7 +31398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="14" t="s">
         <v>236</v>
       </c>
@@ -31533,7 +31499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="14" t="s">
         <v>236</v>
       </c>
@@ -31634,7 +31600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="14" t="s">
         <v>236</v>
       </c>
@@ -31735,7 +31701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="14" t="s">
         <v>236</v>
       </c>
@@ -31836,7 +31802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="14" t="s">
         <v>236</v>
       </c>
@@ -31937,7 +31903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="14" t="s">
         <v>236</v>
       </c>
@@ -32038,7 +32004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="14" t="s">
         <v>236</v>
       </c>
@@ -32139,7 +32105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="14" t="s">
         <v>236</v>
       </c>
@@ -32240,7 +32206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="14" t="s">
         <v>236</v>
       </c>
@@ -32341,7 +32307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="14" t="s">
         <v>236</v>
       </c>
@@ -32442,7 +32408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="14" t="s">
         <v>236</v>
       </c>
@@ -32543,7 +32509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="14" t="s">
         <v>236</v>
       </c>
@@ -32644,7 +32610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="14" t="s">
         <v>236</v>
       </c>
@@ -32745,7 +32711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="14" t="s">
         <v>236</v>
       </c>
@@ -32846,7 +32812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="14" t="s">
         <v>236</v>
       </c>
@@ -32947,7 +32913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="14" t="s">
         <v>236</v>
       </c>
@@ -33048,7 +33014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="14" t="s">
         <v>236</v>
       </c>
@@ -33149,7 +33115,7 @@
         <v>5674.1891891891892</v>
       </c>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="14" t="s">
         <v>236</v>
       </c>
@@ -33250,7 +33216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="14" t="s">
         <v>236</v>
       </c>
@@ -33351,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="14" t="s">
         <v>236</v>
       </c>
@@ -33452,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="14" t="s">
         <v>236</v>
       </c>
@@ -33553,7 +33519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="14" t="s">
         <v>236</v>
       </c>
@@ -33654,7 +33620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="14" t="s">
         <v>236</v>
       </c>
@@ -33755,7 +33721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="14" t="s">
         <v>236</v>
       </c>
@@ -33856,7 +33822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="14" t="s">
         <v>236</v>
       </c>
@@ -33957,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="14" t="s">
         <v>236</v>
       </c>
@@ -34058,7 +34024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="14" t="s">
         <v>236</v>
       </c>
@@ -34159,7 +34125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="14" t="s">
         <v>236</v>
       </c>
@@ -34260,7 +34226,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="14" t="s">
         <v>236</v>
       </c>
@@ -34361,7 +34327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="14" t="s">
         <v>236</v>
       </c>
@@ -34465,7 +34431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="14" t="s">
         <v>236</v>
       </c>
@@ -34570,7 +34536,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="14" t="s">
         <v>236</v>
       </c>
@@ -34673,7 +34639,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK331" xr:uid="{9195D1E3-6E8E-4C3E-88E9-762B0121BDF5}"/>
+  <autoFilter ref="A1:AK331">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="北京多彩互动广告有限公司-北京陌陌信息技术有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34681,7 +34653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -34690,37 +34662,37 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="5" width="33.08984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="1"/>
-    <col min="9" max="9" width="12.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="5" width="33.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.90625" style="2"/>
-    <col min="23" max="23" width="8.90625" style="1"/>
-    <col min="24" max="25" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.90625" style="1"/>
-    <col min="27" max="27" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.90625" style="1"/>
+    <col min="20" max="20" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="2"/>
+    <col min="23" max="23" width="8.875" style="1"/>
+    <col min="24" max="25" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="49" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="49" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -34807,7 +34779,7 @@
         <v>1270181.1683</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -34875,7 +34847,7 @@
       </c>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -34942,7 +34914,7 @@
       </c>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -35011,7 +34983,7 @@
       </c>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -35080,7 +35052,7 @@
       </c>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -35149,7 +35121,7 @@
       </c>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -35218,7 +35190,7 @@
       </c>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -35286,7 +35258,7 @@
       </c>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -35355,7 +35327,7 @@
       </c>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
@@ -35427,7 +35399,7 @@
       </c>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
@@ -35497,7 +35469,7 @@
       </c>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
@@ -35566,7 +35538,7 @@
       </c>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
@@ -35635,7 +35607,7 @@
       </c>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
@@ -35706,7 +35678,7 @@
       </c>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>10</v>
       </c>
@@ -35778,7 +35750,7 @@
       </c>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
@@ -35849,7 +35821,7 @@
       </c>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
@@ -35918,7 +35890,7 @@
       </c>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>10</v>
       </c>
@@ -35987,7 +35959,7 @@
       </c>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
@@ -36054,7 +36026,7 @@
       </c>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>15</v>
       </c>
@@ -36123,7 +36095,7 @@
       </c>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
@@ -36179,7 +36151,7 @@
       <c r="W21" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA21" xr:uid="{870A5BE3-0216-4F61-A9AE-4DA37B7858BB}"/>
+  <autoFilter ref="A1:AA21"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/金源2019-2021/2021年1-5月金源消耗表（财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-5月金源消耗表（财务运营共享版）.xlsx
@@ -1864,9 +1864,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AK331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W337" sqref="W337"/>
+      <selection pane="bottomLeft" activeCell="F338" sqref="F338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,7 +2116,7 @@
         <v>1485393.7890624993</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>183</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>183</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>836764.81249999977</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14" t="s">
         <v>186</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
         <v>186</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>451877.28124999983</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="14" t="s">
         <v>200</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="14" t="s">
         <v>200</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>23437.5</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="14" t="s">
         <v>231</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="14" t="s">
         <v>231</v>
       </c>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="14" t="s">
         <v>236</v>
       </c>
@@ -34643,6 +34643,11 @@
     <filterColumn colId="5">
       <filters>
         <filter val="北京多彩互动广告有限公司-北京陌陌信息技术有限公司"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="CPC"/>
       </filters>
     </filterColumn>
   </autoFilter>
